--- a/bank statement generator/bank_statements/statement_78.xlsx
+++ b/bank statement generator/bank_statements/statement_78.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 12.08.2025</t>
+          <t>KONTOSTAND AM 01.02.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,114 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>16.08.</t>
+          <t>03.02.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>17.08.</t>
+          <t>04.02.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Melsungen</t>
+          <t>PAYPAL VVPWAU</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>16,26-</t>
+          <t>44,78-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>17.08.</t>
+          <t>05.02.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>18.08.</t>
+          <t>06.02.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Gräfenhainichen</t>
+          <t>KARTENZ./05.02 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>31,35-</t>
+          <t>128,97-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>21.08.</t>
+          <t>07.02.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>22.08.</t>
+          <t>08.02.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Duderstadt</t>
+          <t>EBAY MKTPLC EU LMZWXN</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>32,28-</t>
+          <t>110,61-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>25.08.</t>
+          <t>10.02.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>26.08.</t>
+          <t>11.02.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 11805213</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>24,38-</t>
+          <t>87,59-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>13.02.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>14.02.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>89,50-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>15.02.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>16.02.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>PAYPAL SHQWRP</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>60,08-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.08.2025</t>
+          <t>KONTOSTAND AM 19.02.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>104,27-</t>
+          <t>521,53-</t>
         </is>
       </c>
     </row>
@@ -874,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.09.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 28.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
